--- a/bankehoach.xlsx
+++ b/bankehoach.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5fa08e51d23e1a7/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aoki\ClassJapaneseOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E127E8-5257-46E8-A4E8-ED6E7A7992E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{B87D13D1-A5AA-4151-A2B3-7C0BE3A2176A}"/>
+    <workbookView xWindow="-105" yWindow="345" windowWidth="23250" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>BẢNG KẾ HOẠCH THỰC HIỆN</t>
     <phoneticPr fontId="1"/>
@@ -67,9 +66,6 @@
     <t>Tổng hợp yêu cầu.</t>
   </si>
   <si>
-    <t>Thiết kế được</t>
-  </si>
-  <si>
     <t>Trần Tiến Đạt</t>
   </si>
   <si>
@@ -93,14 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>21/9 - 10/10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11/10 - 18/10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>19/10 - 1/12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,24 +99,39 @@
   <si>
     <t>11/12 - 15/12</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thiết kế được các dinagram</t>
+  </si>
+  <si>
+    <t>Xây dựng csdl</t>
+  </si>
+  <si>
+    <t>28/9-18/10</t>
+  </si>
+  <si>
+    <t>21/9 - 22/9</t>
+  </si>
+  <si>
+    <t>23/9-27/9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -218,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,48 +234,57 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,55 +595,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A29ED0-C133-41BC-B5D3-87EEA6A64B34}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="37.5">
       <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -641,114 +653,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53.45" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C13" s="16"/>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
